--- a/scenarios/cough/processes/Safety.xlsx
+++ b/scenarios/cough/processes/Safety.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">baby_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Herzlichen Glückwunsch zum Familen-Neuzuwachs! Leider kann ich dir in dieser Situation im Moment noch nicht weiterhelfen.</t>
@@ -280,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -414,10 +417,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.53"/>
@@ -619,9 +622,11 @@
         <v>29</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>15</v>
@@ -629,16 +634,16 @@
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -652,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,20 +675,20 @@
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7"/>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +702,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Safety.xlsx
+++ b/scenarios/cough/processes/Safety.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">[safety]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISH()</t>
   </si>
   <si>
     <t xml:space="preserve">done</t>
@@ -283,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -416,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,9 +703,11 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Safety.xlsx
+++ b/scenarios/cough/processes/Safety.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">secretion</t>
@@ -206,7 +212,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,7 +222,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF2A6099"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF3652A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -286,11 +298,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,11 +319,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +389,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -417,10 +433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,275 +471,281 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>40</v>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
